--- a/HexaPropsAssay.xlsx
+++ b/HexaPropsAssay.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E95CD-87A3-43C2-8149-756BCF6DE134}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F42E95CD-87A3-43C2-8149-756BCF6DE134}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3450D63A-FAC1-471C-BE5C-8077C0DDE2F0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,15 +2928,16 @@
   <dimension ref="A1:U839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>838</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>-34.472799999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>-38.149799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>-37.442500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>-33.380899999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>-38.899700000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>-30.4422</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>-37.240600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>-35.520099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>-40.720500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>-34.134799999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>-33.575400000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>-33.674300000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>-31.645900000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>-29.8383</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>-30.3645</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>-35.407400000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>-30.937100000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>-29.470300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>-32.902900000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>-29.5395</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>-28.313800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>-31.756499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>-30.698</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>-31.3979</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>-31.791</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>-33.621600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>-29.903300000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>-32.811999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>-30.521899999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>-34.860100000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>-34.527099999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>-30.098700000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>-30.181799999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>-32.026600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>-34.082000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>-31.228400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>-33.823300000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>-33.9009</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>-37.818100000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>-38.506700000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>-31.505600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>-40.5548</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>-33.712000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>-35.734900000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>-34.182499999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>-33.293199999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>-31.6112</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>-36.274799999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>-38.116599999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>-33.828699999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>-39.3337</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>-39.551299999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>-32.455199999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>-34.550699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>-33.737900000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>-34.262700000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>-34.036499999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>-32.0214</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>-30.716200000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>-32.029200000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>-33.325099999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>-30.314499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>-38.375700000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>-33.997700000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>-36.385599999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>-32.652099999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>-32.110500000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>-36.628799999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>-40.686799999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>-39.195399999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>-38.921100000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>-33.520800000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>-35.025199999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>-33.951300000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>-32.805399999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>-36.816499999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>-37.9572</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>-35.0747</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>-38.987900000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>-41.373699999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>-40.059800000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>-29.795999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>-32.628500000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>-30.401299999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>-35.541800000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>-35.941099999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>-27.562200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>-32.413699999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>-35.948399999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>-32.119100000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>-29.813199999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>-31.608899999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>-33.102600000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>-30.230499999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>-30.866299999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>-33.510100000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>-35.183500000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>-35.257899999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -9436,7 +9437,7 @@
         <v>-34.377499999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>-34.105200000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>-30.182500000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>-32.398600000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -9696,7 +9697,7 @@
         <v>-32.038699999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>-33.767600000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>-34.284999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>-34.017000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>-31.323499999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>-34.425600000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>-40.498399999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>-34.183199999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>-37.83</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>-36.5946</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -10346,7 +10347,7 @@
         <v>-36.993200000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>-39.598799999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>-31.912500000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -10541,7 +10542,7 @@
         <v>-35.7881</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -10606,7 +10607,7 @@
         <v>-29.6142</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>-32.565399999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>-38.206699999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>-31.0565</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>-35.044600000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>-30.091699999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>-29.4833</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>-34.735799999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>-27.779499999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>-27.7546</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>-31.432200000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>-36.597299999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>-30.180599999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -11451,7 +11452,7 @@
         <v>-32.967199999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>-34.061300000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>-33.909399999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>-32.165599999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>-34.6708</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>-32.674199999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -11841,7 +11842,7 @@
         <v>-36.104100000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>-31.932200000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>-33.018700000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>-31.135999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -12101,7 +12102,7 @@
         <v>-36.632599999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -12166,7 +12167,7 @@
         <v>-37.460799999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>-27.5183</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>-37.159799999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -12361,7 +12362,7 @@
         <v>-33.430900000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>-33.537300000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>-36.033099999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>-34.664499999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>-31.443999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -12686,7 +12687,7 @@
         <v>-35.609699999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>-39.301000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>-36.982799999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -12881,7 +12882,7 @@
         <v>-29.8172</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12946,7 +12947,7 @@
         <v>-33.988100000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -13011,7 +13012,7 @@
         <v>-31.981999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -13076,7 +13077,7 @@
         <v>-30.127600000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>-30.3691</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>-35.219700000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>-34.8172</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>-30.6004</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -13401,7 +13402,7 @@
         <v>-33.303800000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -13466,7 +13467,7 @@
         <v>-31.182400000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>-25.766100000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -13596,7 +13597,7 @@
         <v>-29.267800000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>-33.038699999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -13726,7 +13727,7 @@
         <v>-32.531500000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>-29.084299999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -13856,7 +13857,7 @@
         <v>-33.162599999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -13921,7 +13922,7 @@
         <v>-27.316299999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>-30.6404</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>-29.835699999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -14116,7 +14117,7 @@
         <v>-30.392199999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>-34.7241</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -14246,7 +14247,7 @@
         <v>-34.641500000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -14311,7 +14312,7 @@
         <v>-33.678600000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -14376,7 +14377,7 @@
         <v>-34.511600000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>-31.937999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>-31.1707</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -14571,7 +14572,7 @@
         <v>-33.4938</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>-35.849600000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>-31.7698</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -14766,7 +14767,7 @@
         <v>-37.715400000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -14831,7 +14832,7 @@
         <v>-35.177</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -14896,7 +14897,7 @@
         <v>-40.004300000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -14961,7 +14962,7 @@
         <v>-37.5627</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -15026,7 +15027,7 @@
         <v>-37.402799999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -15091,7 +15092,7 @@
         <v>-36.830399999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>-33.755200000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -15221,7 +15222,7 @@
         <v>-39.265300000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>-37.508099999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -15351,7 +15352,7 @@
         <v>-36.707900000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -15416,7 +15417,7 @@
         <v>-34.076300000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>-32.554699999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>-32.431100000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -15611,7 +15612,7 @@
         <v>-32.7684</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -15676,7 +15677,7 @@
         <v>-33.433900000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -15741,7 +15742,7 @@
         <v>-33.8611</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -15806,7 +15807,7 @@
         <v>-30.700800000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -15871,7 +15872,7 @@
         <v>-30.439</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -15936,7 +15937,7 @@
         <v>-29.857900000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>-32.673699999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>-32.334299999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -16131,7 +16132,7 @@
         <v>-29.877800000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -16196,7 +16197,7 @@
         <v>-33.4405</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -16261,7 +16262,7 @@
         <v>-31.536200000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -16326,7 +16327,7 @@
         <v>-30.708200000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -16391,7 +16392,7 @@
         <v>-31.0779</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>-35.919699999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>-31.197099999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>-33.545999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>-31.4848</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -16716,7 +16717,7 @@
         <v>-30.767199999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>-34.326099999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -16846,7 +16847,7 @@
         <v>-36.440199999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>-34.567799999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>-34.513100000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -17041,7 +17042,7 @@
         <v>-35.463500000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -17106,7 +17107,7 @@
         <v>-36.288699999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>-36.966299999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -17236,7 +17237,7 @@
         <v>-38.284100000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>-38.6004</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -17366,7 +17367,7 @@
         <v>-32.033900000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>-32.303400000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -17496,7 +17497,7 @@
         <v>-33.3249</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -17561,7 +17562,7 @@
         <v>-37.551900000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>-34.964399999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>-33.293399999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -17756,7 +17757,7 @@
         <v>-31.924800000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>-32.614199999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -17886,7 +17887,7 @@
         <v>-30.735199999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>-35.773699999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>-35.662300000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>-39.885899999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -18146,7 +18147,7 @@
         <v>-34.098100000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -18211,7 +18212,7 @@
         <v>-31.579599999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -18276,7 +18277,7 @@
         <v>-35.350200000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -18341,7 +18342,7 @@
         <v>-35.900100000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -18406,7 +18407,7 @@
         <v>-36.153700000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -18471,7 +18472,7 @@
         <v>-32.244500000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>-33.0276</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -18601,7 +18602,7 @@
         <v>-34.357599999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -18666,7 +18667,7 @@
         <v>-30.354500000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -18731,7 +18732,7 @@
         <v>-27.754999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -18796,7 +18797,7 @@
         <v>-39.1068</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -18861,7 +18862,7 @@
         <v>-31.448899999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -18926,7 +18927,7 @@
         <v>-34.995199999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -18991,7 +18992,7 @@
         <v>-35.502099999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>-35.165900000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -19121,7 +19122,7 @@
         <v>-33.883800000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -19186,7 +19187,7 @@
         <v>-29.3748</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>-33.379100000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>-34.406300000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -19381,7 +19382,7 @@
         <v>-35.469099999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -19446,7 +19447,7 @@
         <v>-33.078499999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -19511,7 +19512,7 @@
         <v>-29.450700000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -19576,7 +19577,7 @@
         <v>-34.6083</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -19641,7 +19642,7 @@
         <v>-39.169899999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -19706,7 +19707,7 @@
         <v>-35.738900000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -19771,7 +19772,7 @@
         <v>-36.483499999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -19836,7 +19837,7 @@
         <v>-33.640599999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -19901,7 +19902,7 @@
         <v>-36.989100000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -19966,7 +19967,7 @@
         <v>-35.172199999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -20031,7 +20032,7 @@
         <v>-34.732700000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -20096,7 +20097,7 @@
         <v>-37.718899999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -20161,7 +20162,7 @@
         <v>-37.631500000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -20226,7 +20227,7 @@
         <v>-38.958599999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>-39.594999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -20356,7 +20357,7 @@
         <v>-30.5871</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -20421,7 +20422,7 @@
         <v>-31.163499999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -20486,7 +20487,7 @@
         <v>-35.7562</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -20551,7 +20552,7 @@
         <v>-35.769500000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -20616,7 +20617,7 @@
         <v>-36.967100000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>-38.4116</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -20746,7 +20747,7 @@
         <v>-35.680500000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -20811,7 +20812,7 @@
         <v>-33.078200000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -20876,7 +20877,7 @@
         <v>-37.6235</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -20941,7 +20942,7 @@
         <v>-35.696100000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>-35.389699999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>-34.999200000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -21136,7 +21137,7 @@
         <v>-28.336099999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -21201,7 +21202,7 @@
         <v>-29.342700000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -21266,7 +21267,7 @@
         <v>-32.325600000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -21331,7 +21332,7 @@
         <v>-32.586799999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -21396,7 +21397,7 @@
         <v>-34.046399999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -21461,7 +21462,7 @@
         <v>-29.5962</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -21526,7 +21527,7 @@
         <v>-30.3492</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -21591,7 +21592,7 @@
         <v>-32.795299999999997</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -21656,7 +21657,7 @@
         <v>-35.583199999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -21721,7 +21722,7 @@
         <v>-31.308</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -21786,7 +21787,7 @@
         <v>-39.213999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -21851,7 +21852,7 @@
         <v>-35.817100000000003</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -21916,7 +21917,7 @@
         <v>-32.356200000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -21981,7 +21982,7 @@
         <v>-34.990699999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -22046,7 +22047,7 @@
         <v>-33.535600000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -22111,7 +22112,7 @@
         <v>-33.023200000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -22176,7 +22177,7 @@
         <v>-32.684800000000003</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -22241,7 +22242,7 @@
         <v>-33.875</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -22306,7 +22307,7 @@
         <v>-34.2226</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -22371,7 +22372,7 @@
         <v>-34.2241</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -22436,7 +22437,7 @@
         <v>-35.818100000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -22501,7 +22502,7 @@
         <v>-32.568399999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -22566,7 +22567,7 @@
         <v>-33.9709</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -22631,7 +22632,7 @@
         <v>-37.421100000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -22696,7 +22697,7 @@
         <v>-35.673400000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -22761,7 +22762,7 @@
         <v>-35.598199999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -22826,7 +22827,7 @@
         <v>-38.216299999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -22891,7 +22892,7 @@
         <v>-31.513300000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -22956,7 +22957,7 @@
         <v>-36.366799999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -23021,7 +23022,7 @@
         <v>-33.801099999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -23086,7 +23087,7 @@
         <v>-38.319400000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -23151,7 +23152,7 @@
         <v>-36.775799999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -23216,7 +23217,7 @@
         <v>-35.644500000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -23281,7 +23282,7 @@
         <v>-36.255299999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -23346,7 +23347,7 @@
         <v>-33.080399999999997</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -23411,7 +23412,7 @@
         <v>-36.803899999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -23476,7 +23477,7 @@
         <v>-34.2971</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -23541,7 +23542,7 @@
         <v>-34.307899999999997</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -23606,7 +23607,7 @@
         <v>-32.721600000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -23671,7 +23672,7 @@
         <v>-31.054500000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -23736,7 +23737,7 @@
         <v>-33.660600000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -23801,7 +23802,7 @@
         <v>-30.401299999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -23866,7 +23867,7 @@
         <v>-30.486499999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -23931,7 +23932,7 @@
         <v>-31.1036</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -23996,7 +23997,7 @@
         <v>-28.441400000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -24061,7 +24062,7 @@
         <v>-32.787300000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -24126,7 +24127,7 @@
         <v>-33.897100000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -24191,7 +24192,7 @@
         <v>-35.613700000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -24256,7 +24257,7 @@
         <v>-32.665799999999997</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -24321,7 +24322,7 @@
         <v>-37.0197</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -24386,7 +24387,7 @@
         <v>-35.326799999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -24451,7 +24452,7 @@
         <v>-32.061199999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -24516,7 +24517,7 @@
         <v>-34.125100000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -24581,7 +24582,7 @@
         <v>-35.310899999999997</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -24646,7 +24647,7 @@
         <v>-36.863500000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -24711,7 +24712,7 @@
         <v>-33.293399999999998</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -24776,7 +24777,7 @@
         <v>-34.586100000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -24841,7 +24842,7 @@
         <v>-38.002400000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -24906,7 +24907,7 @@
         <v>-36.361699999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>-36.6586</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -25036,7 +25037,7 @@
         <v>-32.4392</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -25101,7 +25102,7 @@
         <v>-34.6023</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -25166,7 +25167,7 @@
         <v>-36.730499999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -25231,7 +25232,7 @@
         <v>-37.717700000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -25296,7 +25297,7 @@
         <v>-37.647300000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -25361,7 +25362,7 @@
         <v>-38.439100000000003</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -25426,7 +25427,7 @@
         <v>-36.781199999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -25491,7 +25492,7 @@
         <v>-35.056899999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -25556,7 +25557,7 @@
         <v>-38.582500000000003</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -25621,7 +25622,7 @@
         <v>-34.874200000000002</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -25686,7 +25687,7 @@
         <v>-32.201300000000003</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -25751,7 +25752,7 @@
         <v>-34.255800000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -25816,7 +25817,7 @@
         <v>-39.572299999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -25881,7 +25882,7 @@
         <v>-35.786299999999997</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -25946,7 +25947,7 @@
         <v>-37.860399999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -26011,7 +26012,7 @@
         <v>-31.9389</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -26076,7 +26077,7 @@
         <v>-33.753399999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -26141,7 +26142,7 @@
         <v>-33.482799999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -26206,7 +26207,7 @@
         <v>-35.001899999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -26271,7 +26272,7 @@
         <v>-34.889099999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -26336,7 +26337,7 @@
         <v>-34.901299999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -26401,7 +26402,7 @@
         <v>-31.994900000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -26466,7 +26467,7 @@
         <v>-35.392699999999998</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -26531,7 +26532,7 @@
         <v>-33.199800000000003</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -26596,7 +26597,7 @@
         <v>-32.611199999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>-32.000700000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -26726,7 +26727,7 @@
         <v>-33.835900000000002</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -26791,7 +26792,7 @@
         <v>-33.452300000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -26856,7 +26857,7 @@
         <v>-39.304600000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -26921,7 +26922,7 @@
         <v>-36.851300000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -26986,7 +26987,7 @@
         <v>-37.370699999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -27051,7 +27052,7 @@
         <v>-39.172600000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -27116,7 +27117,7 @@
         <v>-34.773299999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -27181,7 +27182,7 @@
         <v>-34.527799999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -27246,7 +27247,7 @@
         <v>-35.0107</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>-35.940800000000003</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -27376,7 +27377,7 @@
         <v>-34.083399999999997</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -27441,7 +27442,7 @@
         <v>-38.376600000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -27506,7 +27507,7 @@
         <v>-37.488399999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -27571,7 +27572,7 @@
         <v>-28.994199999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -27636,7 +27637,7 @@
         <v>-38.8904</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -27701,7 +27702,7 @@
         <v>-33.073900000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -27766,7 +27767,7 @@
         <v>-33.223199999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -27831,7 +27832,7 @@
         <v>-39.041699999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -27896,7 +27897,7 @@
         <v>-36.410699999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -27961,7 +27962,7 @@
         <v>-34.025700000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -28026,7 +28027,7 @@
         <v>-36.8919</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -28091,7 +28092,7 @@
         <v>-38.917099999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -28156,7 +28157,7 @@
         <v>-39.792499999999997</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -28221,7 +28222,7 @@
         <v>-37.125799999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -28286,7 +28287,7 @@
         <v>-41.350999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -28351,7 +28352,7 @@
         <v>-35.982700000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -28416,7 +28417,7 @@
         <v>-36.706499999999998</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -28481,7 +28482,7 @@
         <v>-32.048699999999997</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -28546,7 +28547,7 @@
         <v>-30.9011</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -28611,7 +28612,7 @@
         <v>-30.461600000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -28676,7 +28677,7 @@
         <v>-31.616399999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -28741,7 +28742,7 @@
         <v>-31.868300000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -28806,7 +28807,7 @@
         <v>-31.9634</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -28871,7 +28872,7 @@
         <v>-32.348799999999997</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -28936,7 +28937,7 @@
         <v>-28.598500000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -29001,7 +29002,7 @@
         <v>-30.691299999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -29066,7 +29067,7 @@
         <v>-29.084199999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>-26.657800000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -29196,7 +29197,7 @@
         <v>-35.197200000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -29261,7 +29262,7 @@
         <v>-33.956499999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -29326,7 +29327,7 @@
         <v>-34.28</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -29391,7 +29392,7 @@
         <v>-33.103900000000003</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -29456,7 +29457,7 @@
         <v>-33.587600000000002</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -29521,7 +29522,7 @@
         <v>-31.980899999999998</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -29586,7 +29587,7 @@
         <v>-33.371400000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -29651,7 +29652,7 @@
         <v>-31.9495</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -29716,7 +29717,7 @@
         <v>-34.430199999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -29781,7 +29782,7 @@
         <v>-27.583400000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -29846,7 +29847,7 @@
         <v>-35.4133</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -29911,7 +29912,7 @@
         <v>-30.213100000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -29976,7 +29977,7 @@
         <v>-31.720400000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -30041,7 +30042,7 @@
         <v>-34.1815</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -30106,7 +30107,7 @@
         <v>-33.924500000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -30171,7 +30172,7 @@
         <v>-35.281199999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -30236,7 +30237,7 @@
         <v>-37.001899999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -30301,7 +30302,7 @@
         <v>-36.777799999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -30366,7 +30367,7 @@
         <v>-32.652200000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -30431,7 +30432,7 @@
         <v>-34.953200000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -30496,7 +30497,7 @@
         <v>-34.188200000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -30561,7 +30562,7 @@
         <v>-34.6464</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -30626,7 +30627,7 @@
         <v>-36.490299999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -30691,7 +30692,7 @@
         <v>-35.986899999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -30756,7 +30757,7 @@
         <v>-35.829700000000003</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -30821,7 +30822,7 @@
         <v>-30.803699999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -30886,7 +30887,7 @@
         <v>-32.1905</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -30951,7 +30952,7 @@
         <v>-33.580399999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -31016,7 +31017,7 @@
         <v>-34.612699999999997</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -31081,7 +31082,7 @@
         <v>-33.948</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -31146,7 +31147,7 @@
         <v>-31.899799999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -31211,7 +31212,7 @@
         <v>-35.163600000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -31276,7 +31277,7 @@
         <v>-34.773899999999998</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -31341,7 +31342,7 @@
         <v>-33.3292</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -31406,7 +31407,7 @@
         <v>-34.682499999999997</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -31471,7 +31472,7 @@
         <v>-34.526800000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -31536,7 +31537,7 @@
         <v>-34.503500000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -31601,7 +31602,7 @@
         <v>-34.1556</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -31666,7 +31667,7 @@
         <v>-35.097900000000003</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -31731,7 +31732,7 @@
         <v>-36.293900000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -31796,7 +31797,7 @@
         <v>-40.528500000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -31861,7 +31862,7 @@
         <v>-37.503100000000003</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -31926,7 +31927,7 @@
         <v>-29.903700000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -31991,7 +31992,7 @@
         <v>-36.180999999999997</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -32056,7 +32057,7 @@
         <v>-36.178899999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -32121,7 +32122,7 @@
         <v>-35.393799999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -32186,7 +32187,7 @@
         <v>-37.953699999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -32251,7 +32252,7 @@
         <v>-32.000599999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -32316,7 +32317,7 @@
         <v>-30.866599999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -32381,7 +32382,7 @@
         <v>-32.596899999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -32446,7 +32447,7 @@
         <v>-28.230599999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -32511,7 +32512,7 @@
         <v>-29.072900000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -32576,7 +32577,7 @@
         <v>-36.950000000000003</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -32641,7 +32642,7 @@
         <v>-33.560200000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -32706,7 +32707,7 @@
         <v>-32.911700000000003</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -32771,7 +32772,7 @@
         <v>-30.827999999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -32836,7 +32837,7 @@
         <v>-33.767899999999997</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -32901,7 +32902,7 @@
         <v>-35.4116</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -32966,7 +32967,7 @@
         <v>-31.809000000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -33031,7 +33032,7 @@
         <v>-31.988</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -33096,7 +33097,7 @@
         <v>-29.9239</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -33161,7 +33162,7 @@
         <v>-30.206099999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -33226,7 +33227,7 @@
         <v>-31.3064</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -33291,7 +33292,7 @@
         <v>-32.779600000000002</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>466</v>
       </c>
@@ -33356,7 +33357,7 @@
         <v>-34.750399999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -33421,7 +33422,7 @@
         <v>-34.616799999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -33486,7 +33487,7 @@
         <v>-35.561500000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -33551,7 +33552,7 @@
         <v>-35.303199999999997</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -33616,7 +33617,7 @@
         <v>-34.167400000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>471</v>
       </c>
@@ -33681,7 +33682,7 @@
         <v>-31.072500000000002</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>472</v>
       </c>
@@ -33746,7 +33747,7 @@
         <v>-36.967500000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>473</v>
       </c>
@@ -33811,7 +33812,7 @@
         <v>-35.186799999999998</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -33876,7 +33877,7 @@
         <v>-38.460099999999997</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>475</v>
       </c>
@@ -33941,7 +33942,7 @@
         <v>-36.7286</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>476</v>
       </c>
@@ -34006,7 +34007,7 @@
         <v>-37.190100000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -34071,7 +34072,7 @@
         <v>-37.409599999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -34136,7 +34137,7 @@
         <v>-37.299700000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -34201,7 +34202,7 @@
         <v>-36.714300000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -34266,7 +34267,7 @@
         <v>-35.229599999999998</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -34331,7 +34332,7 @@
         <v>-31.520499999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -34396,7 +34397,7 @@
         <v>-28.881799999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>483</v>
       </c>
@@ -34461,7 +34462,7 @@
         <v>-31.9711</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -34526,7 +34527,7 @@
         <v>-37.341299999999997</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -34591,7 +34592,7 @@
         <v>-35.416400000000003</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -34656,7 +34657,7 @@
         <v>-30.8627</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -34721,7 +34722,7 @@
         <v>-35.842599999999997</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -34786,7 +34787,7 @@
         <v>-30.767299999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -34851,7 +34852,7 @@
         <v>-33.864899999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -34916,7 +34917,7 @@
         <v>-34.767899999999997</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -34981,7 +34982,7 @@
         <v>-30.145600000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -35046,7 +35047,7 @@
         <v>-30.210599999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -35111,7 +35112,7 @@
         <v>-31.13</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>494</v>
       </c>
@@ -35176,7 +35177,7 @@
         <v>-34.1721</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>495</v>
       </c>
@@ -35241,7 +35242,7 @@
         <v>-34.762099999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>496</v>
       </c>
@@ -35306,7 +35307,7 @@
         <v>-27.759699999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>497</v>
       </c>
@@ -35371,7 +35372,7 @@
         <v>-28.1191</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>498</v>
       </c>
@@ -35436,7 +35437,7 @@
         <v>-34.866199999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>499</v>
       </c>
@@ -35501,7 +35502,7 @@
         <v>-35.484499999999997</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>500</v>
       </c>
@@ -35566,7 +35567,7 @@
         <v>-33.401899999999998</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>501</v>
       </c>
@@ -35631,7 +35632,7 @@
         <v>-31.441500000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>502</v>
       </c>
@@ -35696,7 +35697,7 @@
         <v>-34.670699999999997</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>503</v>
       </c>
@@ -35761,7 +35762,7 @@
         <v>-32.190300000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>504</v>
       </c>
@@ -35826,7 +35827,7 @@
         <v>-35.205100000000002</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>505</v>
       </c>
@@ -35891,7 +35892,7 @@
         <v>-34.325699999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>506</v>
       </c>
@@ -35956,7 +35957,7 @@
         <v>-30.14</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>507</v>
       </c>
@@ -36021,7 +36022,7 @@
         <v>-30.412199999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>508</v>
       </c>
@@ -36086,7 +36087,7 @@
         <v>-33.005400000000002</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>509</v>
       </c>
@@ -36151,7 +36152,7 @@
         <v>-32.791800000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>510</v>
       </c>
@@ -36216,7 +36217,7 @@
         <v>-32.7881</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>511</v>
       </c>
@@ -36281,7 +36282,7 @@
         <v>-28.157800000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>512</v>
       </c>
@@ -36346,7 +36347,7 @@
         <v>-29.477399999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>513</v>
       </c>
@@ -36411,7 +36412,7 @@
         <v>-34.951300000000003</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>514</v>
       </c>
@@ -36476,7 +36477,7 @@
         <v>-33.976100000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>515</v>
       </c>
@@ -36541,7 +36542,7 @@
         <v>-30.1677</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>516</v>
       </c>
@@ -36606,7 +36607,7 @@
         <v>-30.459700000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>517</v>
       </c>
@@ -36671,7 +36672,7 @@
         <v>-35.857900000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>518</v>
       </c>
@@ -36736,7 +36737,7 @@
         <v>-35.636600000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>519</v>
       </c>
@@ -36801,7 +36802,7 @@
         <v>-35.712800000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>520</v>
       </c>
@@ -36866,7 +36867,7 @@
         <v>-32.249299999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -36931,7 +36932,7 @@
         <v>-31.243200000000002</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>522</v>
       </c>
@@ -36996,7 +36997,7 @@
         <v>-39.103400000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>523</v>
       </c>
@@ -37061,7 +37062,7 @@
         <v>-31.398700000000002</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>524</v>
       </c>
@@ -37126,7 +37127,7 @@
         <v>-31.1709</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>525</v>
       </c>
@@ -37191,7 +37192,7 @@
         <v>-33.7515</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>526</v>
       </c>
@@ -37256,7 +37257,7 @@
         <v>-32.9604</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>527</v>
       </c>
@@ -37321,7 +37322,7 @@
         <v>-31.8216</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>528</v>
       </c>
@@ -37386,7 +37387,7 @@
         <v>-31.822600000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>529</v>
       </c>
@@ -37451,7 +37452,7 @@
         <v>-34.0715</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>530</v>
       </c>
@@ -37516,7 +37517,7 @@
         <v>-34.465699999999998</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>531</v>
       </c>
@@ -37581,7 +37582,7 @@
         <v>-36.0458</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>532</v>
       </c>
@@ -37646,7 +37647,7 @@
         <v>-33.111400000000003</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>533</v>
       </c>
@@ -37711,7 +37712,7 @@
         <v>-30.279599999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>534</v>
       </c>
@@ -37776,7 +37777,7 @@
         <v>-35.796500000000002</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>535</v>
       </c>
@@ -37841,7 +37842,7 @@
         <v>-35.002000000000002</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>536</v>
       </c>
@@ -37906,7 +37907,7 @@
         <v>-36.532899999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>537</v>
       </c>
@@ -37971,7 +37972,7 @@
         <v>-34.382100000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>538</v>
       </c>
@@ -38036,7 +38037,7 @@
         <v>-30.990500000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>539</v>
       </c>
@@ -38101,7 +38102,7 @@
         <v>-27.0761</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>540</v>
       </c>
@@ -38166,7 +38167,7 @@
         <v>-28.303899999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>541</v>
       </c>
@@ -38231,7 +38232,7 @@
         <v>-29.4374</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>542</v>
       </c>
@@ -38296,7 +38297,7 @@
         <v>-34.1175</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>543</v>
       </c>
@@ -38361,7 +38362,7 @@
         <v>-30.824200000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>544</v>
       </c>
@@ -38426,7 +38427,7 @@
         <v>-36.126300000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>545</v>
       </c>
@@ -38491,7 +38492,7 @@
         <v>-35.786900000000003</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>546</v>
       </c>
@@ -38556,7 +38557,7 @@
         <v>-30.561299999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>547</v>
       </c>
@@ -38621,7 +38622,7 @@
         <v>-29.990600000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>548</v>
       </c>
@@ -38686,7 +38687,7 @@
         <v>-33.169400000000003</v>
       </c>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>549</v>
       </c>
@@ -38751,7 +38752,7 @@
         <v>-36.639000000000003</v>
       </c>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>550</v>
       </c>
@@ -38816,7 +38817,7 @@
         <v>-30.4421</v>
       </c>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>551</v>
       </c>
@@ -38881,7 +38882,7 @@
         <v>-30.360499999999998</v>
       </c>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>552</v>
       </c>
@@ -38946,7 +38947,7 @@
         <v>-30.662800000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>553</v>
       </c>
@@ -39011,7 +39012,7 @@
         <v>-31.326499999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>554</v>
       </c>
@@ -39076,7 +39077,7 @@
         <v>-30.5656</v>
       </c>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>555</v>
       </c>
@@ -39141,7 +39142,7 @@
         <v>-33.219799999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>556</v>
       </c>
@@ -39206,7 +39207,7 @@
         <v>-36.575499999999998</v>
       </c>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>557</v>
       </c>
@@ -39271,7 +39272,7 @@
         <v>-32.857300000000002</v>
       </c>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -39336,7 +39337,7 @@
         <v>-33.985599999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>559</v>
       </c>
@@ -39401,7 +39402,7 @@
         <v>-33.828499999999998</v>
       </c>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -39466,7 +39467,7 @@
         <v>-36.450600000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>561</v>
       </c>
@@ -39531,7 +39532,7 @@
         <v>-35.011699999999998</v>
       </c>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -39596,7 +39597,7 @@
         <v>-36.488900000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>563</v>
       </c>
@@ -39661,7 +39662,7 @@
         <v>-35.904499999999999</v>
       </c>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>564</v>
       </c>
@@ -39726,7 +39727,7 @@
         <v>-38.382199999999997</v>
       </c>
     </row>
-    <row r="567" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>565</v>
       </c>
@@ -39791,7 +39792,7 @@
         <v>-34.488500000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>566</v>
       </c>
@@ -39856,7 +39857,7 @@
         <v>-34.065600000000003</v>
       </c>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>567</v>
       </c>
@@ -39921,7 +39922,7 @@
         <v>-33.7301</v>
       </c>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -39986,7 +39987,7 @@
         <v>-35.160499999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>569</v>
       </c>
@@ -40051,7 +40052,7 @@
         <v>-32.915999999999997</v>
       </c>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>570</v>
       </c>
@@ -40116,7 +40117,7 @@
         <v>-34.816499999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -40181,7 +40182,7 @@
         <v>-30.232800000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>572</v>
       </c>
@@ -40246,7 +40247,7 @@
         <v>-35.151400000000002</v>
       </c>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -40311,7 +40312,7 @@
         <v>-30.5703</v>
       </c>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -40376,7 +40377,7 @@
         <v>-35.460700000000003</v>
       </c>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>575</v>
       </c>
@@ -40441,7 +40442,7 @@
         <v>-30.0717</v>
       </c>
     </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>576</v>
       </c>
@@ -40506,7 +40507,7 @@
         <v>-31.5762</v>
       </c>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>577</v>
       </c>
@@ -40571,7 +40572,7 @@
         <v>-32.803100000000001</v>
       </c>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>578</v>
       </c>
@@ -40636,7 +40637,7 @@
         <v>-33.43</v>
       </c>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>579</v>
       </c>
@@ -40701,7 +40702,7 @@
         <v>-35.732700000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>580</v>
       </c>
@@ -40766,7 +40767,7 @@
         <v>-31.5458</v>
       </c>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>581</v>
       </c>
@@ -40831,7 +40832,7 @@
         <v>-32.747700000000002</v>
       </c>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>582</v>
       </c>
@@ -40896,7 +40897,7 @@
         <v>-32.214599999999997</v>
       </c>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>583</v>
       </c>
@@ -40961,7 +40962,7 @@
         <v>-32.514400000000002</v>
       </c>
     </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>584</v>
       </c>
@@ -41026,7 +41027,7 @@
         <v>-37.2136</v>
       </c>
     </row>
-    <row r="587" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>585</v>
       </c>
@@ -41091,7 +41092,7 @@
         <v>-37.100099999999998</v>
       </c>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -41156,7 +41157,7 @@
         <v>-37.332500000000003</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>587</v>
       </c>
@@ -41221,7 +41222,7 @@
         <v>-36.8626</v>
       </c>
     </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>588</v>
       </c>
@@ -41286,7 +41287,7 @@
         <v>-33.325099999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -41351,7 +41352,7 @@
         <v>-32.369500000000002</v>
       </c>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>590</v>
       </c>
@@ -41416,7 +41417,7 @@
         <v>-35.093899999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>591</v>
       </c>
@@ -41481,7 +41482,7 @@
         <v>-36.5899</v>
       </c>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>592</v>
       </c>
@@ -41546,7 +41547,7 @@
         <v>-33.264099999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>593</v>
       </c>
@@ -41611,7 +41612,7 @@
         <v>-32.102200000000003</v>
       </c>
     </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>594</v>
       </c>
@@ -41676,7 +41677,7 @@
         <v>-39.182000000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>595</v>
       </c>
@@ -41741,7 +41742,7 @@
         <v>-36.7057</v>
       </c>
     </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>596</v>
       </c>
@@ -41806,7 +41807,7 @@
         <v>-37.285299999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -41871,7 +41872,7 @@
         <v>-31.782399999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>598</v>
       </c>
@@ -41936,7 +41937,7 @@
         <v>-36.709600000000002</v>
       </c>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>599</v>
       </c>
@@ -42001,7 +42002,7 @@
         <v>-36.9696</v>
       </c>
     </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>600</v>
       </c>
@@ -42066,7 +42067,7 @@
         <v>-30.116299999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -42131,7 +42132,7 @@
         <v>-35.380699999999997</v>
       </c>
     </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>602</v>
       </c>
@@ -42196,7 +42197,7 @@
         <v>-33.548299999999998</v>
       </c>
     </row>
-    <row r="605" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>603</v>
       </c>
@@ -42261,7 +42262,7 @@
         <v>-36.462200000000003</v>
       </c>
     </row>
-    <row r="606" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>604</v>
       </c>
@@ -42326,7 +42327,7 @@
         <v>-35.043999999999997</v>
       </c>
     </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>605</v>
       </c>
@@ -42391,7 +42392,7 @@
         <v>-38.495199999999997</v>
       </c>
     </row>
-    <row r="608" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>606</v>
       </c>
@@ -42456,7 +42457,7 @@
         <v>-35.344900000000003</v>
       </c>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>607</v>
       </c>
@@ -42521,7 +42522,7 @@
         <v>-36.594000000000001</v>
       </c>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>608</v>
       </c>
@@ -42586,7 +42587,7 @@
         <v>-33.280700000000003</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>609</v>
       </c>
@@ -42651,7 +42652,7 @@
         <v>-30.655999999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>610</v>
       </c>
@@ -42716,7 +42717,7 @@
         <v>-31.435700000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>611</v>
       </c>
@@ -42781,7 +42782,7 @@
         <v>-34.972499999999997</v>
       </c>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>612</v>
       </c>
@@ -42846,7 +42847,7 @@
         <v>-26.805099999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>613</v>
       </c>
@@ -42911,7 +42912,7 @@
         <v>-31.7333</v>
       </c>
     </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>614</v>
       </c>
@@ -42976,7 +42977,7 @@
         <v>-35.959899999999998</v>
       </c>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>615</v>
       </c>
@@ -43041,7 +43042,7 @@
         <v>-33.241900000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>616</v>
       </c>
@@ -43106,7 +43107,7 @@
         <v>-29.287199999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>617</v>
       </c>
@@ -43171,7 +43172,7 @@
         <v>-31.393799999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>618</v>
       </c>
@@ -43236,7 +43237,7 @@
         <v>-30.080500000000001</v>
       </c>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>619</v>
       </c>
@@ -43301,7 +43302,7 @@
         <v>-30.9344</v>
       </c>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>620</v>
       </c>
@@ -43366,7 +43367,7 @@
         <v>-32.827399999999997</v>
       </c>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>621</v>
       </c>
@@ -43431,7 +43432,7 @@
         <v>-34.0869</v>
       </c>
     </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>622</v>
       </c>
@@ -43496,7 +43497,7 @@
         <v>-33.797899999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>623</v>
       </c>
@@ -43561,7 +43562,7 @@
         <v>-33.110900000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>624</v>
       </c>
@@ -43626,7 +43627,7 @@
         <v>-31.5044</v>
       </c>
     </row>
-    <row r="627" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>625</v>
       </c>
@@ -43691,7 +43692,7 @@
         <v>-36.439900000000002</v>
       </c>
     </row>
-    <row r="628" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>626</v>
       </c>
@@ -43756,7 +43757,7 @@
         <v>-30.762499999999999</v>
       </c>
     </row>
-    <row r="629" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>627</v>
       </c>
@@ -43821,7 +43822,7 @@
         <v>-28.7867</v>
       </c>
     </row>
-    <row r="630" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>628</v>
       </c>
@@ -43886,7 +43887,7 @@
         <v>-32.849699999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>629</v>
       </c>
@@ -43951,7 +43952,7 @@
         <v>-29.774000000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>630</v>
       </c>
@@ -44016,7 +44017,7 @@
         <v>-33.739800000000002</v>
       </c>
     </row>
-    <row r="633" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>631</v>
       </c>
@@ -44081,7 +44082,7 @@
         <v>-33.619100000000003</v>
       </c>
     </row>
-    <row r="634" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>632</v>
       </c>
@@ -44146,7 +44147,7 @@
         <v>-36.807600000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>633</v>
       </c>
@@ -44211,7 +44212,7 @@
         <v>-34.059100000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>634</v>
       </c>
@@ -44276,7 +44277,7 @@
         <v>-31.708200000000001</v>
       </c>
     </row>
-    <row r="637" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>635</v>
       </c>
@@ -44341,7 +44342,7 @@
         <v>-35.526899999999998</v>
       </c>
     </row>
-    <row r="638" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>636</v>
       </c>
@@ -44406,7 +44407,7 @@
         <v>-42.776299999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>637</v>
       </c>
@@ -44471,7 +44472,7 @@
         <v>-42.9191</v>
       </c>
     </row>
-    <row r="640" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>638</v>
       </c>
@@ -44536,7 +44537,7 @@
         <v>-36.149799999999999</v>
       </c>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>639</v>
       </c>
@@ -44601,7 +44602,7 @@
         <v>-36.843000000000004</v>
       </c>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>640</v>
       </c>
@@ -44666,7 +44667,7 @@
         <v>-37.938200000000002</v>
       </c>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>641</v>
       </c>
@@ -44731,7 +44732,7 @@
         <v>-30.4041</v>
       </c>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>642</v>
       </c>
@@ -44796,7 +44797,7 @@
         <v>-35.680799999999998</v>
       </c>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>643</v>
       </c>
@@ -44861,7 +44862,7 @@
         <v>-37.476300000000002</v>
       </c>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>644</v>
       </c>
@@ -44926,7 +44927,7 @@
         <v>-31.501000000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>645</v>
       </c>
@@ -44991,7 +44992,7 @@
         <v>-34.891800000000003</v>
       </c>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>646</v>
       </c>
@@ -45056,7 +45057,7 @@
         <v>-35.976100000000002</v>
       </c>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>647</v>
       </c>
@@ -45121,7 +45122,7 @@
         <v>-32.683199999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>648</v>
       </c>
@@ -45186,7 +45187,7 @@
         <v>-40.619399999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>649</v>
       </c>
@@ -45251,7 +45252,7 @@
         <v>-28.342400000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>650</v>
       </c>
@@ -45316,7 +45317,7 @@
         <v>-33.866399999999999</v>
       </c>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>651</v>
       </c>
@@ -45381,7 +45382,7 @@
         <v>-35.128300000000003</v>
       </c>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>652</v>
       </c>
@@ -45446,7 +45447,7 @@
         <v>-30.303899999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>653</v>
       </c>
@@ -45511,7 +45512,7 @@
         <v>-34.636499999999998</v>
       </c>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>654</v>
       </c>
@@ -45576,7 +45577,7 @@
         <v>-27.1419</v>
       </c>
     </row>
-    <row r="657" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>655</v>
       </c>
@@ -45641,7 +45642,7 @@
         <v>-27.241900000000001</v>
       </c>
     </row>
-    <row r="658" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>656</v>
       </c>
@@ -45706,7 +45707,7 @@
         <v>-32.172499999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>657</v>
       </c>
@@ -45771,7 +45772,7 @@
         <v>-34.343200000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>658</v>
       </c>
@@ -45836,7 +45837,7 @@
         <v>-36.168500000000002</v>
       </c>
     </row>
-    <row r="661" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>659</v>
       </c>
@@ -45901,7 +45902,7 @@
         <v>-30.569600000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>660</v>
       </c>
@@ -45966,7 +45967,7 @@
         <v>-31.227699999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>661</v>
       </c>
@@ -46031,7 +46032,7 @@
         <v>-30.691299999999998</v>
       </c>
     </row>
-    <row r="664" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>662</v>
       </c>
@@ -46096,7 +46097,7 @@
         <v>-33.2851</v>
       </c>
     </row>
-    <row r="665" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>663</v>
       </c>
@@ -46161,7 +46162,7 @@
         <v>-32.624200000000002</v>
       </c>
     </row>
-    <row r="666" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>664</v>
       </c>
@@ -46226,7 +46227,7 @@
         <v>-32.820900000000002</v>
       </c>
     </row>
-    <row r="667" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>665</v>
       </c>
@@ -46291,7 +46292,7 @@
         <v>-29.4742</v>
       </c>
     </row>
-    <row r="668" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>666</v>
       </c>
@@ -46356,7 +46357,7 @@
         <v>-34.918100000000003</v>
       </c>
     </row>
-    <row r="669" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>667</v>
       </c>
@@ -46421,7 +46422,7 @@
         <v>-32.003900000000002</v>
       </c>
     </row>
-    <row r="670" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>668</v>
       </c>
@@ -46486,7 +46487,7 @@
         <v>-34.677900000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>669</v>
       </c>
@@ -46551,7 +46552,7 @@
         <v>-29.320499999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>670</v>
       </c>
@@ -46616,7 +46617,7 @@
         <v>-28.5273</v>
       </c>
     </row>
-    <row r="673" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>671</v>
       </c>
@@ -46681,7 +46682,7 @@
         <v>-30.560500000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>672</v>
       </c>
@@ -46746,7 +46747,7 @@
         <v>-36.2714</v>
       </c>
     </row>
-    <row r="675" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>673</v>
       </c>
@@ -46811,7 +46812,7 @@
         <v>-33.014899999999997</v>
       </c>
     </row>
-    <row r="676" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>674</v>
       </c>
@@ -46876,7 +46877,7 @@
         <v>-30.6493</v>
       </c>
     </row>
-    <row r="677" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>675</v>
       </c>
@@ -46941,7 +46942,7 @@
         <v>-30.022300000000001</v>
       </c>
     </row>
-    <row r="678" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>676</v>
       </c>
@@ -47006,7 +47007,7 @@
         <v>-30.085999999999999</v>
       </c>
     </row>
-    <row r="679" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>677</v>
       </c>
@@ -47071,7 +47072,7 @@
         <v>-31.5627</v>
       </c>
     </row>
-    <row r="680" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>678</v>
       </c>
@@ -47136,7 +47137,7 @@
         <v>-35.415999999999997</v>
       </c>
     </row>
-    <row r="681" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>679</v>
       </c>
@@ -47201,7 +47202,7 @@
         <v>-31.221399999999999</v>
       </c>
     </row>
-    <row r="682" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>680</v>
       </c>
@@ -47266,7 +47267,7 @@
         <v>-32.588000000000001</v>
       </c>
     </row>
-    <row r="683" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>681</v>
       </c>
@@ -47331,7 +47332,7 @@
         <v>-32.670900000000003</v>
       </c>
     </row>
-    <row r="684" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>682</v>
       </c>
@@ -47396,7 +47397,7 @@
         <v>-27.908799999999999</v>
       </c>
     </row>
-    <row r="685" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>683</v>
       </c>
@@ -47461,7 +47462,7 @@
         <v>-33.557600000000001</v>
       </c>
     </row>
-    <row r="686" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>684</v>
       </c>
@@ -47526,7 +47527,7 @@
         <v>-38.020499999999998</v>
       </c>
     </row>
-    <row r="687" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>685</v>
       </c>
@@ -47591,7 +47592,7 @@
         <v>-37.566899999999997</v>
       </c>
     </row>
-    <row r="688" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>686</v>
       </c>
@@ -47656,7 +47657,7 @@
         <v>-35.082599999999999</v>
       </c>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>687</v>
       </c>
@@ -47721,7 +47722,7 @@
         <v>-34.643000000000001</v>
       </c>
     </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>688</v>
       </c>
@@ -47786,7 +47787,7 @@
         <v>-30.248100000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>689</v>
       </c>
@@ -47851,7 +47852,7 @@
         <v>-36.317700000000002</v>
       </c>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>690</v>
       </c>
@@ -47916,7 +47917,7 @@
         <v>-37.672699999999999</v>
       </c>
     </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>691</v>
       </c>
@@ -47981,7 +47982,7 @@
         <v>-32.314700000000002</v>
       </c>
     </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>692</v>
       </c>
@@ -48046,7 +48047,7 @@
         <v>-38.622900000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>693</v>
       </c>
@@ -48111,7 +48112,7 @@
         <v>-34.897500000000001</v>
       </c>
     </row>
-    <row r="696" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>694</v>
       </c>
@@ -48176,7 +48177,7 @@
         <v>-30.797799999999999</v>
       </c>
     </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>695</v>
       </c>
@@ -48241,7 +48242,7 @@
         <v>-33.946199999999997</v>
       </c>
     </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>696</v>
       </c>
@@ -48306,7 +48307,7 @@
         <v>-36.873699999999999</v>
       </c>
     </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>697</v>
       </c>
@@ -48371,7 +48372,7 @@
         <v>-28.231999999999999</v>
       </c>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>698</v>
       </c>
@@ -48436,7 +48437,7 @@
         <v>-31.0825</v>
       </c>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>699</v>
       </c>
@@ -48501,7 +48502,7 @@
         <v>-32.565199999999997</v>
       </c>
     </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>700</v>
       </c>
@@ -48566,7 +48567,7 @@
         <v>-28.589300000000001</v>
       </c>
     </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>701</v>
       </c>
@@ -48631,7 +48632,7 @@
         <v>-29.651299999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>702</v>
       </c>
@@ -48696,7 +48697,7 @@
         <v>-32.553699999999999</v>
       </c>
     </row>
-    <row r="705" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>703</v>
       </c>
@@ -48761,7 +48762,7 @@
         <v>-32.040599999999998</v>
       </c>
     </row>
-    <row r="706" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>704</v>
       </c>
@@ -48826,7 +48827,7 @@
         <v>-33.398899999999998</v>
       </c>
     </row>
-    <row r="707" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>705</v>
       </c>
@@ -48891,7 +48892,7 @@
         <v>-33.2119</v>
       </c>
     </row>
-    <row r="708" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>706</v>
       </c>
@@ -48956,7 +48957,7 @@
         <v>-31.7773</v>
       </c>
     </row>
-    <row r="709" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>707</v>
       </c>
@@ -49021,7 +49022,7 @@
         <v>-33.8279</v>
       </c>
     </row>
-    <row r="710" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>708</v>
       </c>
@@ -49086,7 +49087,7 @@
         <v>-31.610099999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>709</v>
       </c>
@@ -49151,7 +49152,7 @@
         <v>-33.775300000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>710</v>
       </c>
@@ -49216,7 +49217,7 @@
         <v>-41.333199999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>711</v>
       </c>
@@ -49281,7 +49282,7 @@
         <v>-33.2241</v>
       </c>
     </row>
-    <row r="714" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>712</v>
       </c>
@@ -49346,7 +49347,7 @@
         <v>-31.4862</v>
       </c>
     </row>
-    <row r="715" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>713</v>
       </c>
@@ -49411,7 +49412,7 @@
         <v>-37.245899999999999</v>
       </c>
     </row>
-    <row r="716" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>714</v>
       </c>
@@ -49476,7 +49477,7 @@
         <v>-34.072400000000002</v>
       </c>
     </row>
-    <row r="717" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>715</v>
       </c>
@@ -49541,7 +49542,7 @@
         <v>-34.582299999999996</v>
       </c>
     </row>
-    <row r="718" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>716</v>
       </c>
@@ -49606,7 +49607,7 @@
         <v>-36.484900000000003</v>
       </c>
     </row>
-    <row r="719" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>717</v>
       </c>
@@ -49671,7 +49672,7 @@
         <v>-33.420200000000001</v>
       </c>
     </row>
-    <row r="720" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>718</v>
       </c>
@@ -49736,7 +49737,7 @@
         <v>-35.681100000000001</v>
       </c>
     </row>
-    <row r="721" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>719</v>
       </c>
@@ -49801,7 +49802,7 @@
         <v>-31.150400000000001</v>
       </c>
     </row>
-    <row r="722" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>720</v>
       </c>
@@ -49866,7 +49867,7 @@
         <v>-37.082900000000002</v>
       </c>
     </row>
-    <row r="723" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>721</v>
       </c>
@@ -49931,7 +49932,7 @@
         <v>-34.081099999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>722</v>
       </c>
@@ -49996,7 +49997,7 @@
         <v>-37.6096</v>
       </c>
     </row>
-    <row r="725" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>723</v>
       </c>
@@ -50061,7 +50062,7 @@
         <v>-33.653399999999998</v>
       </c>
     </row>
-    <row r="726" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>724</v>
       </c>
@@ -50126,7 +50127,7 @@
         <v>-33.7607</v>
       </c>
     </row>
-    <row r="727" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>725</v>
       </c>
@@ -50191,7 +50192,7 @@
         <v>-34.837499999999999</v>
       </c>
     </row>
-    <row r="728" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>726</v>
       </c>
@@ -50256,7 +50257,7 @@
         <v>-30.281199999999998</v>
       </c>
     </row>
-    <row r="729" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>727</v>
       </c>
@@ -50321,7 +50322,7 @@
         <v>-34.505299999999998</v>
       </c>
     </row>
-    <row r="730" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>728</v>
       </c>
@@ -50386,7 +50387,7 @@
         <v>-34.729999999999997</v>
       </c>
     </row>
-    <row r="731" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>729</v>
       </c>
@@ -50451,7 +50452,7 @@
         <v>-30.368600000000001</v>
       </c>
     </row>
-    <row r="732" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>730</v>
       </c>
@@ -50516,7 +50517,7 @@
         <v>-32.2744</v>
       </c>
     </row>
-    <row r="733" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>731</v>
       </c>
@@ -50581,7 +50582,7 @@
         <v>-32.1892</v>
       </c>
     </row>
-    <row r="734" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>732</v>
       </c>
@@ -50646,7 +50647,7 @@
         <v>-33.497500000000002</v>
       </c>
     </row>
-    <row r="735" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>733</v>
       </c>
@@ -50711,7 +50712,7 @@
         <v>-32.802199999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>734</v>
       </c>
@@ -50776,7 +50777,7 @@
         <v>-31.361499999999999</v>
       </c>
     </row>
-    <row r="737" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>735</v>
       </c>
@@ -50841,7 +50842,7 @@
         <v>-33.650500000000001</v>
       </c>
     </row>
-    <row r="738" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>736</v>
       </c>
@@ -50906,7 +50907,7 @@
         <v>-31.501200000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>737</v>
       </c>
@@ -50971,7 +50972,7 @@
         <v>-30.378</v>
       </c>
     </row>
-    <row r="740" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>738</v>
       </c>
@@ -51036,7 +51037,7 @@
         <v>-34.811</v>
       </c>
     </row>
-    <row r="741" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>739</v>
       </c>
@@ -51101,7 +51102,7 @@
         <v>-30.812100000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>740</v>
       </c>
@@ -51166,7 +51167,7 @@
         <v>-35.1494</v>
       </c>
     </row>
-    <row r="743" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>741</v>
       </c>
@@ -51231,7 +51232,7 @@
         <v>-36.339199999999998</v>
       </c>
     </row>
-    <row r="744" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>742</v>
       </c>
@@ -51296,7 +51297,7 @@
         <v>-35.131599999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>743</v>
       </c>
@@ -51361,7 +51362,7 @@
         <v>-29.647600000000001</v>
       </c>
     </row>
-    <row r="746" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>744</v>
       </c>
@@ -51426,7 +51427,7 @@
         <v>-32.417900000000003</v>
       </c>
     </row>
-    <row r="747" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>745</v>
       </c>
@@ -51491,7 +51492,7 @@
         <v>-34.613199999999999</v>
       </c>
     </row>
-    <row r="748" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>746</v>
       </c>
@@ -51556,7 +51557,7 @@
         <v>-33.170299999999997</v>
       </c>
     </row>
-    <row r="749" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>747</v>
       </c>
@@ -51621,7 +51622,7 @@
         <v>-37.026600000000002</v>
       </c>
     </row>
-    <row r="750" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>748</v>
       </c>
@@ -51686,7 +51687,7 @@
         <v>-39.350099999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>749</v>
       </c>
@@ -51751,7 +51752,7 @@
         <v>-31.6493</v>
       </c>
     </row>
-    <row r="752" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>750</v>
       </c>
@@ -51816,7 +51817,7 @@
         <v>-37.576700000000002</v>
       </c>
     </row>
-    <row r="753" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>751</v>
       </c>
@@ -51881,7 +51882,7 @@
         <v>-31.864100000000001</v>
       </c>
     </row>
-    <row r="754" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>752</v>
       </c>
@@ -51946,7 +51947,7 @@
         <v>-35.334699999999998</v>
       </c>
     </row>
-    <row r="755" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>753</v>
       </c>
@@ -52011,7 +52012,7 @@
         <v>-37.714300000000001</v>
       </c>
     </row>
-    <row r="756" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>754</v>
       </c>
@@ -52076,7 +52077,7 @@
         <v>-35.523699999999998</v>
       </c>
     </row>
-    <row r="757" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>755</v>
       </c>
@@ -52141,7 +52142,7 @@
         <v>-34.619199999999999</v>
       </c>
     </row>
-    <row r="758" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>756</v>
       </c>
@@ -52206,7 +52207,7 @@
         <v>-32.982399999999998</v>
       </c>
     </row>
-    <row r="759" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>757</v>
       </c>
@@ -52271,7 +52272,7 @@
         <v>-30.863399999999999</v>
       </c>
     </row>
-    <row r="760" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>758</v>
       </c>
@@ -52336,7 +52337,7 @@
         <v>-33.366900000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>759</v>
       </c>
@@ -52401,7 +52402,7 @@
         <v>-30.773900000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>760</v>
       </c>
@@ -52466,7 +52467,7 @@
         <v>-30.8537</v>
       </c>
     </row>
-    <row r="763" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>761</v>
       </c>
@@ -52531,7 +52532,7 @@
         <v>-33.458799999999997</v>
       </c>
     </row>
-    <row r="764" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>762</v>
       </c>
@@ -52596,7 +52597,7 @@
         <v>-34.769100000000002</v>
       </c>
     </row>
-    <row r="765" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>763</v>
       </c>
@@ -52661,7 +52662,7 @@
         <v>-39.572699999999998</v>
       </c>
     </row>
-    <row r="766" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>764</v>
       </c>
@@ -52726,7 +52727,7 @@
         <v>-34.790999999999997</v>
       </c>
     </row>
-    <row r="767" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>765</v>
       </c>
@@ -52791,7 +52792,7 @@
         <v>-30.6371</v>
       </c>
     </row>
-    <row r="768" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>766</v>
       </c>
@@ -52856,7 +52857,7 @@
         <v>-30.976700000000001</v>
       </c>
     </row>
-    <row r="769" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>767</v>
       </c>
@@ -52921,7 +52922,7 @@
         <v>-31.194199999999999</v>
       </c>
     </row>
-    <row r="770" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>768</v>
       </c>
@@ -52986,7 +52987,7 @@
         <v>-34.537399999999998</v>
       </c>
     </row>
-    <row r="771" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>769</v>
       </c>
@@ -53051,7 +53052,7 @@
         <v>-35.5837</v>
       </c>
     </row>
-    <row r="772" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>770</v>
       </c>
@@ -53116,7 +53117,7 @@
         <v>-34.500500000000002</v>
       </c>
     </row>
-    <row r="773" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>771</v>
       </c>
@@ -53181,7 +53182,7 @@
         <v>-32.286299999999997</v>
       </c>
     </row>
-    <row r="774" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>772</v>
       </c>
@@ -53246,7 +53247,7 @@
         <v>-30.9815</v>
       </c>
     </row>
-    <row r="775" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>773</v>
       </c>
@@ -53311,7 +53312,7 @@
         <v>-34.752400000000002</v>
       </c>
     </row>
-    <row r="776" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>774</v>
       </c>
@@ -53376,7 +53377,7 @@
         <v>-30.991399999999999</v>
       </c>
     </row>
-    <row r="777" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>775</v>
       </c>
@@ -53441,7 +53442,7 @@
         <v>-29.720500000000001</v>
       </c>
     </row>
-    <row r="778" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>776</v>
       </c>
@@ -53506,7 +53507,7 @@
         <v>-33.095700000000001</v>
       </c>
     </row>
-    <row r="779" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>777</v>
       </c>
@@ -53571,7 +53572,7 @@
         <v>-30.931699999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>778</v>
       </c>
@@ -53636,7 +53637,7 @@
         <v>-32.5929</v>
       </c>
     </row>
-    <row r="781" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>779</v>
       </c>
@@ -53701,7 +53702,7 @@
         <v>-31.563800000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>780</v>
       </c>
@@ -53766,7 +53767,7 @@
         <v>-32.448900000000002</v>
       </c>
     </row>
-    <row r="783" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>781</v>
       </c>
@@ -53831,7 +53832,7 @@
         <v>-30.2561</v>
       </c>
     </row>
-    <row r="784" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>782</v>
       </c>
@@ -53896,7 +53897,7 @@
         <v>-31.247399999999999</v>
       </c>
     </row>
-    <row r="785" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>783</v>
       </c>
@@ -53961,7 +53962,7 @@
         <v>-32.252400000000002</v>
       </c>
     </row>
-    <row r="786" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>784</v>
       </c>
@@ -54026,7 +54027,7 @@
         <v>-32.4497</v>
       </c>
     </row>
-    <row r="787" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>785</v>
       </c>
@@ -54091,7 +54092,7 @@
         <v>-33.148499999999999</v>
       </c>
     </row>
-    <row r="788" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>786</v>
       </c>
@@ -54156,7 +54157,7 @@
         <v>-34.246699999999997</v>
       </c>
     </row>
-    <row r="789" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>787</v>
       </c>
@@ -54221,7 +54222,7 @@
         <v>-34.369999999999997</v>
       </c>
     </row>
-    <row r="790" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>788</v>
       </c>
@@ -54286,7 +54287,7 @@
         <v>-33.185000000000002</v>
       </c>
     </row>
-    <row r="791" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>789</v>
       </c>
@@ -54351,7 +54352,7 @@
         <v>-32.543300000000002</v>
       </c>
     </row>
-    <row r="792" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>790</v>
       </c>
@@ -54416,7 +54417,7 @@
         <v>-31.822700000000001</v>
       </c>
     </row>
-    <row r="793" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>791</v>
       </c>
@@ -54481,7 +54482,7 @@
         <v>-31.912600000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>792</v>
       </c>
@@ -54546,7 +54547,7 @@
         <v>-33.188600000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>793</v>
       </c>
@@ -54611,7 +54612,7 @@
         <v>-33.853499999999997</v>
       </c>
     </row>
-    <row r="796" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>794</v>
       </c>
@@ -54676,7 +54677,7 @@
         <v>-36.368299999999998</v>
       </c>
     </row>
-    <row r="797" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>795</v>
       </c>
@@ -54741,7 +54742,7 @@
         <v>-34.877600000000001</v>
       </c>
     </row>
-    <row r="798" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>796</v>
       </c>
@@ -54806,7 +54807,7 @@
         <v>-33.565399999999997</v>
       </c>
     </row>
-    <row r="799" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>797</v>
       </c>
@@ -54871,7 +54872,7 @@
         <v>-32.418599999999998</v>
       </c>
     </row>
-    <row r="800" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>798</v>
       </c>
@@ -54936,7 +54937,7 @@
         <v>-34.4818</v>
       </c>
     </row>
-    <row r="801" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>799</v>
       </c>
@@ -55001,7 +55002,7 @@
         <v>-29.228400000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>800</v>
       </c>
@@ -55066,7 +55067,7 @@
         <v>-32.598799999999997</v>
       </c>
     </row>
-    <row r="803" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>801</v>
       </c>
@@ -55131,7 +55132,7 @@
         <v>-35.178400000000003</v>
       </c>
     </row>
-    <row r="804" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>802</v>
       </c>
@@ -55196,7 +55197,7 @@
         <v>-37.052100000000003</v>
       </c>
     </row>
-    <row r="805" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>803</v>
       </c>
@@ -55261,7 +55262,7 @@
         <v>-36.744999999999997</v>
       </c>
     </row>
-    <row r="806" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>804</v>
       </c>
@@ -55326,7 +55327,7 @@
         <v>-39.797600000000003</v>
       </c>
     </row>
-    <row r="807" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>805</v>
       </c>
@@ -55391,7 +55392,7 @@
         <v>-34.939300000000003</v>
       </c>
     </row>
-    <row r="808" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>806</v>
       </c>
@@ -55456,7 +55457,7 @@
         <v>-32.517499999999998</v>
       </c>
     </row>
-    <row r="809" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>807</v>
       </c>
@@ -55521,7 +55522,7 @@
         <v>-36.7575</v>
       </c>
     </row>
-    <row r="810" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>808</v>
       </c>
@@ -55586,7 +55587,7 @@
         <v>-35.715600000000002</v>
       </c>
     </row>
-    <row r="811" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>809</v>
       </c>
@@ -55651,7 +55652,7 @@
         <v>-31.895299999999999</v>
       </c>
     </row>
-    <row r="812" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>810</v>
       </c>
@@ -55716,7 +55717,7 @@
         <v>-35.311100000000003</v>
       </c>
     </row>
-    <row r="813" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>811</v>
       </c>
@@ -55781,7 +55782,7 @@
         <v>-35.831400000000002</v>
       </c>
     </row>
-    <row r="814" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>812</v>
       </c>
@@ -55846,7 +55847,7 @@
         <v>-32.608600000000003</v>
       </c>
     </row>
-    <row r="815" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>813</v>
       </c>
@@ -55911,7 +55912,7 @@
         <v>-33.546900000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>814</v>
       </c>
@@ -55976,7 +55977,7 @@
         <v>-33.519300000000001</v>
       </c>
     </row>
-    <row r="817" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>815</v>
       </c>
@@ -56041,7 +56042,7 @@
         <v>-31.8475</v>
       </c>
     </row>
-    <row r="818" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>816</v>
       </c>
@@ -56106,7 +56107,7 @@
         <v>-34.285600000000002</v>
       </c>
     </row>
-    <row r="819" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>817</v>
       </c>
@@ -56171,7 +56172,7 @@
         <v>-34.7727</v>
       </c>
     </row>
-    <row r="820" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>818</v>
       </c>
@@ -56236,7 +56237,7 @@
         <v>-28.532499999999999</v>
       </c>
     </row>
-    <row r="821" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>819</v>
       </c>
@@ -56301,7 +56302,7 @@
         <v>-33.684800000000003</v>
       </c>
     </row>
-    <row r="822" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>820</v>
       </c>
@@ -56366,7 +56367,7 @@
         <v>-28.318300000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>821</v>
       </c>
@@ -56431,7 +56432,7 @@
         <v>-32.474299999999999</v>
       </c>
     </row>
-    <row r="824" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>822</v>
       </c>
@@ -56496,7 +56497,7 @@
         <v>-31.064800000000002</v>
       </c>
     </row>
-    <row r="825" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>823</v>
       </c>
@@ -56561,7 +56562,7 @@
         <v>-36.235500000000002</v>
       </c>
     </row>
-    <row r="826" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>824</v>
       </c>
@@ -56626,7 +56627,7 @@
         <v>-30.4665</v>
       </c>
     </row>
-    <row r="827" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>825</v>
       </c>
@@ -56691,7 +56692,7 @@
         <v>-31.4511</v>
       </c>
     </row>
-    <row r="828" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>826</v>
       </c>
@@ -56756,7 +56757,7 @@
         <v>-32.213799999999999</v>
       </c>
     </row>
-    <row r="829" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>827</v>
       </c>
@@ -56821,7 +56822,7 @@
         <v>-32.857999999999997</v>
       </c>
     </row>
-    <row r="830" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>828</v>
       </c>
@@ -56886,7 +56887,7 @@
         <v>-31.704899999999999</v>
       </c>
     </row>
-    <row r="831" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>829</v>
       </c>
@@ -56951,7 +56952,7 @@
         <v>-33.157600000000002</v>
       </c>
     </row>
-    <row r="832" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>830</v>
       </c>
@@ -57016,7 +57017,7 @@
         <v>-31.591200000000001</v>
       </c>
     </row>
-    <row r="833" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>831</v>
       </c>
@@ -57081,7 +57082,7 @@
         <v>-34.8628</v>
       </c>
     </row>
-    <row r="834" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>832</v>
       </c>
@@ -57146,7 +57147,7 @@
         <v>-30.765599999999999</v>
       </c>
     </row>
-    <row r="835" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>833</v>
       </c>
@@ -57211,7 +57212,7 @@
         <v>-30.704599999999999</v>
       </c>
     </row>
-    <row r="836" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>834</v>
       </c>
@@ -57276,7 +57277,7 @@
         <v>-32.1708</v>
       </c>
     </row>
-    <row r="837" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>835</v>
       </c>
@@ -57341,7 +57342,7 @@
         <v>-33.181399999999996</v>
       </c>
     </row>
-    <row r="838" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>836</v>
       </c>
@@ -57406,7 +57407,7 @@
         <v>-37.860399999999998</v>
       </c>
     </row>
-    <row r="839" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>837</v>
       </c>
